--- a/AAII_Financials/Quarterly/APHE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APHE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/APHE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APHE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>APHE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -675,64 +675,79 @@
     <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +790,20 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -813,14 +840,26 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,14 +896,26 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +932,12 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +980,20 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1036,20 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,20 +1057,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1010,11 +1089,23 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1148,20 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1175,12 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1081,32 +1188,32 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>500</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>200</v>
+      </c>
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1116,8 +1223,20 @@
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,32 +1244,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1279,20 @@
       <c r="P18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1309,12 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,40 +1325,52 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,13 +1413,25 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1310,52 +1469,76 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1581,20 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1637,132 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1805,20 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1861,20 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1917,20 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1973,20 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,84 +1997,108 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2141,137 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2288,12 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2310,12 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1978,8 +2325,8 @@
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
+      <c r="F41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2011,8 +2358,20 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,19 +2414,31 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2084,8 +2455,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2093,14 +2464,26 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>4</v>
+      <c r="O43" s="3">
+        <v>0</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,52 +2526,76 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2196,20 +2603,20 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2638,20 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,43 +2694,55 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -2319,8 +2750,20 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2806,20 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2862,20 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2918,20 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2974,20 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +3030,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="J54" s="3">
         <v>100</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -2583,8 +3086,20 @@
       <c r="P54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +3116,12 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,38 +3138,42 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
         <v>0</v>
       </c>
@@ -2663,151 +3186,199 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
-      </c>
-      <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
         <v>200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
         <v>200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="J59" s="3">
         <v>200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="L59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F60" s="3">
+        <v>600</v>
+      </c>
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="E60" s="3">
-        <v>400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1200</v>
-      </c>
       <c r="H60" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>300</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>100</v>
@@ -2816,16 +3387,16 @@
         <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2839,8 +3410,20 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2880,11 +3463,23 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3522,20 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3578,20 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3634,76 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>600</v>
+      </c>
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>400</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I66" s="3">
-        <v>400</v>
       </c>
       <c r="J66" s="3">
         <v>400</v>
       </c>
       <c r="K66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M66" s="3">
+        <v>400</v>
+      </c>
+      <c r="N66" s="3">
+        <v>400</v>
+      </c>
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
-        <v>0</v>
-      </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3720,12 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3768,20 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3824,20 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3880,20 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3936,76 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H72" s="3">
         <v>-2200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-2000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-1900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-1600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="T72" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +4048,20 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +4104,20 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +4160,76 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I76" s="3">
         <v>-500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>-300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-1200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="Q76" s="3">
         <v>-100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4272,137 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4419,12 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4467,20 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4523,20 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4579,20 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4635,20 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4691,20 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4747,20 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3904,20 +4771,20 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4803,20 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,43 +4833,47 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -3998,8 +4881,20 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4937,20 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,32 +4993,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -4124,14 +5043,26 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +5079,12 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +5127,20 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +5183,20 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +5239,20 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +5295,20 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,23 +5316,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4368,8 +5351,20 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +5407,20 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +5461,18 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APHE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APHE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>APHE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,13 +809,19 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
@@ -852,14 +865,20 @@
       <c r="R9" s="3">
         <v>0</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,14 +927,20 @@
       <c r="R10" s="3">
         <v>0</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,55 +1081,61 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+        <v>1000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1230,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1188,38 +1241,38 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1235,8 +1288,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1244,38 +1303,38 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
@@ -1291,8 +1350,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1378,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1337,31 +1404,31 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-100</v>
-      </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1369,8 +1436,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1434,10 +1513,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1481,55 +1560,61 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>200</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -1537,8 +1622,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,55 +1746,61 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>200</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>200</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -1705,55 +1808,61 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J27" s="3">
-        <v>200</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>200</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -1761,8 +1870,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2118,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2009,31 +2148,31 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2041,55 +2180,61 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J33" s="3">
-        <v>200</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>200</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -2097,8 +2242,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,55 +2304,61 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J35" s="3">
-        <v>200</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>200</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
@@ -2209,69 +2366,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,25 +2485,27 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
+      <c r="E41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2370,8 +2543,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2605,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2467,23 +2652,29 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,35 +2729,41 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2579,11 +2776,11 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2594,8 +2791,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2605,24 +2808,24 @@
       <c r="E46" s="3">
         <v>0</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
+      <c r="F46" s="3">
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
+      <c r="H46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +2853,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,23 +2915,29 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
@@ -2730,25 +2945,25 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>100</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -2762,8 +2977,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,38 +3287,44 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1000</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
       <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,44 +3401,46 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>700</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -3198,25 +3459,31 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3225,37 +3492,43 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,128 +3536,140 @@
         <v>100</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3">
-        <v>200</v>
-      </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F60" s="3">
         <v>1900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -3399,10 +3684,10 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3422,8 +3707,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3475,11 +3766,17 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3955,76 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>1900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
-        <v>0</v>
-      </c>
-      <c r="T66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-100</v>
       </c>
       <c r="T72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,19 +4537,25 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-600</v>
       </c>
       <c r="G76" s="3">
         <v>-600</v>
@@ -4193,43 +4564,49 @@
         <v>-600</v>
       </c>
       <c r="I76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K76" s="3">
         <v>-500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-100</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
       <c r="T76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,116 +4661,128 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J81" s="3">
-        <v>200</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>200</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
@@ -4401,8 +4790,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,13 +5186,19 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -4783,14 +5216,14 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,13 +5276,15 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
@@ -4854,32 +5295,32 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5458,19 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>4</v>
+      <c r="D94" s="3">
+        <v>0</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>4</v>
@@ -5019,24 +5478,24 @@
       <c r="F94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5055,14 +5514,20 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5792,19 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
@@ -5322,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5331,14 +5822,14 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APHE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APHE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>APHE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,19 +823,25 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -871,25 +885,31 @@
       <c r="T9" s="3">
         <v>0</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -933,14 +953,20 @@
       <c r="T10" s="3">
         <v>0</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,52 +1136,52 @@
         <v>4</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,53 +1284,55 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1300</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
@@ -1294,8 +1348,14 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,44 +1363,44 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1300</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-500</v>
+        <v>-300</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
@@ -1356,8 +1416,14 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1410,31 +1478,31 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
@@ -1442,8 +1510,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,25 +1578,31 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1566,61 +1646,67 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
       </c>
       <c r="M23" s="3">
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>0</v>
@@ -1628,8 +1714,14 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,61 +1850,67 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>200</v>
       </c>
       <c r="M26" s="3">
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>0</v>
@@ -1814,61 +1918,67 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L27" s="3">
-        <v>200</v>
       </c>
       <c r="M27" s="3">
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>0</v>
@@ -1876,8 +1986,14 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2154,31 +2294,31 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
@@ -2186,61 +2326,67 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L33" s="3">
-        <v>200</v>
       </c>
       <c r="M33" s="3">
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>0</v>
@@ -2248,8 +2394,14 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,61 +2462,67 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L35" s="3">
-        <v>200</v>
       </c>
       <c r="M35" s="3">
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>0</v>
@@ -2372,75 +2530,87 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,31 +2659,33 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
         <v>0</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>4</v>
+      <c r="E41" s="3">
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
+      <c r="J41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2549,8 +2723,14 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2658,23 +2844,29 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
+      <c r="R43" s="3">
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3">
-        <v>0</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2749,27 +2947,27 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="J45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2782,11 +2980,11 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
@@ -2797,8 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2814,24 +3018,24 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
+      <c r="J46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>100</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
@@ -2859,8 +3063,14 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2933,17 +3149,17 @@
         <v>100</v>
       </c>
       <c r="F48" s="3">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
@@ -2951,25 +3167,25 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,8 +3539,14 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3305,32 +3557,32 @@
         <v>100</v>
       </c>
       <c r="F54" s="3">
+        <v>100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>100</v>
+      </c>
+      <c r="H54" s="3">
         <v>1000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
         <v>100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>100</v>
       </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
       <c r="O54" s="3">
         <v>0</v>
       </c>
@@ -3355,8 +3607,14 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,50 +3663,52 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>600</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
         <v>0</v>
       </c>
@@ -3465,31 +3727,37 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>200</v>
-      </c>
-      <c r="I58" s="3">
-        <v>100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3498,184 +3766,202 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>100</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
-        <v>0</v>
-      </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
@@ -3690,10 +3976,10 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3772,11 +4064,17 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>100</v>
       </c>
-      <c r="U66" s="3">
-        <v>0</v>
-      </c>
-      <c r="V66" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-200</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-100</v>
       </c>
       <c r="V72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,25 +4909,31 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-900</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-600</v>
       </c>
       <c r="I76" s="3">
         <v>-600</v>
@@ -4570,43 +4942,49 @@
         <v>-600</v>
       </c>
       <c r="K76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-100</v>
       </c>
-      <c r="T76" s="3">
-        <v>0</v>
-      </c>
-      <c r="U76" s="3">
-        <v>0</v>
-      </c>
       <c r="V76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,128 +5045,140 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="L81" s="3">
-        <v>200</v>
       </c>
       <c r="M81" s="3">
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>0</v>
@@ -4796,8 +5186,14 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5201,10 +5635,10 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -5222,14 +5656,14 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -5254,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,19 +5718,21 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -5301,32 +5743,32 @@
       <c r="I91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,19 +5918,25 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -5484,24 +5944,24 @@
       <c r="H94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -5520,14 +5980,20 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-      <c r="U94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5810,7 +6302,7 @@
         <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
@@ -5819,7 +6311,7 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5828,14 +6320,14 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/APHE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/APHE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>APHE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,22 +832,25 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
@@ -891,28 +897,31 @@
       <c r="V9" s="3">
         <v>0</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
+      <c r="W9" s="3">
+        <v>0</v>
       </c>
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -959,14 +968,17 @@
       <c r="V10" s="3">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
+      <c r="W10" s="3">
+        <v>0</v>
       </c>
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,46 +1143,49 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1174,11 +1193,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1186,17 +1205,20 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,47 +1321,47 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>200</v>
+      </c>
+      <c r="H17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>200</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1363,47 +1392,47 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1484,19 +1517,19 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
@@ -1505,7 +1538,7 @@
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1596,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1605,7 +1644,7 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1652,8 +1691,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1664,43 +1706,43 @@
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
@@ -1709,7 +1751,7 @@
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1868,43 +1919,43 @@
         <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
@@ -1913,7 +1964,7 @@
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
@@ -1924,8 +1975,11 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1936,43 +1990,43 @@
         <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
@@ -1981,7 +2035,7 @@
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2300,19 +2369,19 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
@@ -2321,7 +2390,7 @@
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
@@ -2332,8 +2401,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2344,43 +2416,43 @@
         <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
@@ -2389,7 +2461,7 @@
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2480,43 +2558,43 @@
         <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
@@ -2525,7 +2603,7 @@
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2675,20 +2761,20 @@
       <c r="F41" s="3">
         <v>0</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2850,23 +2942,26 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
-        <v>0</v>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V43" s="3">
         <v>0</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>4</v>
+      <c r="W43" s="3">
+        <v>0</v>
       </c>
       <c r="X43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2953,8 +3051,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2962,15 +3060,15 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
@@ -2986,8 +3084,8 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T45" s="3">
-        <v>0</v>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3024,21 +3125,21 @@
       <c r="I46" s="3">
         <v>0</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3155,13 +3262,13 @@
         <v>100</v>
       </c>
       <c r="H48" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3173,22 +3280,22 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>100</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
+      <c r="Q48" s="3">
+        <v>0</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S48" s="3">
-        <v>0</v>
+      <c r="S48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T48" s="3">
         <v>0</v>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,13 +3667,16 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3563,13 +3688,13 @@
         <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I54" s="3">
         <v>1000</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -3578,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="M54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>0</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,53 +3794,54 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
@@ -3733,34 +3863,37 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>1800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1300</v>
       </c>
       <c r="H58" s="3">
         <v>1300</v>
       </c>
       <c r="I58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3772,37 +3905,40 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3813,7 +3949,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3822,16 +3958,16 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
         <v>200</v>
@@ -3840,105 +3976,111 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>200</v>
       </c>
       <c r="T59" s="3">
         <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
+      <c r="W59" s="3">
+        <v>0</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>2200</v>
       </c>
       <c r="G60" s="3">
         <v>2200</v>
       </c>
       <c r="H60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I60" s="3">
         <v>1900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
-      </c>
-      <c r="K60" s="3">
-        <v>500</v>
       </c>
       <c r="L60" s="3">
         <v>500</v>
       </c>
       <c r="M60" s="3">
+        <v>500</v>
+      </c>
+      <c r="N60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
       <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>100</v>
       </c>
       <c r="V60" s="3">
         <v>100</v>
       </c>
       <c r="W60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,7 +4088,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3955,7 +4097,7 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3964,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -3982,7 +4124,7 @@
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4070,11 +4215,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4286,67 +4443,70 @@
         <v>2800</v>
       </c>
       <c r="E66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F66" s="3">
         <v>2600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
-      </c>
-      <c r="J66" s="3">
-        <v>600</v>
       </c>
       <c r="K66" s="3">
         <v>600</v>
       </c>
       <c r="L66" s="3">
+        <v>600</v>
+      </c>
+      <c r="M66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>400</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
       </c>
       <c r="S66" s="3">
+        <v>400</v>
+      </c>
+      <c r="T66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>100</v>
       </c>
       <c r="V66" s="3">
         <v>100</v>
       </c>
       <c r="W66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,67 +4813,70 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-200</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-100</v>
       </c>
       <c r="W72" s="3">
         <v>-100</v>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,28 +5097,31 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-600</v>
       </c>
       <c r="J76" s="3">
         <v>-600</v>
@@ -4948,43 +5133,46 @@
         <v>-600</v>
       </c>
       <c r="M76" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-400</v>
       </c>
       <c r="R76" s="3">
         <v>-400</v>
       </c>
       <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-100</v>
       </c>
-      <c r="V76" s="3">
-        <v>0</v>
-      </c>
       <c r="W76" s="3">
         <v>0</v>
       </c>
       <c r="X76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5136,43 +5330,43 @@
         <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
@@ -5181,7 +5375,7 @@
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5641,7 +5857,7 @@
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>0</v>
@@ -5662,11 +5878,11 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5734,8 +5954,8 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
@@ -5749,20 +5969,20 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>4</v>
@@ -5770,8 +5990,8 @@
       <c r="R91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5938,8 +6167,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -5950,8 +6179,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -5960,11 +6189,11 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -5986,14 +6215,17 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>4</v>
+      <c r="W94" s="3">
+        <v>0</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6308,14 +6553,14 @@
         <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -6326,11 +6571,11 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>
